--- a/Quantitative assesment 2.xlsx
+++ b/Quantitative assesment 2.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="10" documentId="14_{C314D2C5-8915-4ACC-8BC4-54EDE9EB4199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F5487D91-509F-453A-8C76-D263A6DB3911}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{0252E634-2B07-413E-AC1B-3109A3360DBF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0252E634-2B07-413E-AC1B-3109A3360DBF}"/>
   </bookViews>
   <sheets>
     <sheet name="Question 2" sheetId="1" r:id="rId1"/>
@@ -13051,7 +13051,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E024BBF4-9B4A-4DDA-B46C-474081C6532B}">
   <dimension ref="A1:V256"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="81" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="81" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="O55" sqref="O55:O65"/>
     </sheetView>
   </sheetViews>
@@ -19318,7 +19318,7 @@
   <dimension ref="A1:T75"/>
   <sheetViews>
     <sheetView zoomScale="50" workbookViewId="0">
-      <selection activeCell="S6" sqref="S6:AA20"/>
+      <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -22245,8 +22245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B153EEF-38CE-4000-8005-E1FE7B2C4528}">
   <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -23062,12 +23062,11 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="b7be8240-149b-427d-8eba-7bb1ff6225dd" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -23304,17 +23303,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="b7be8240-149b-427d-8eba-7bb1ff6225dd" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F343E3C9-47AE-45F4-B386-B306DF359907}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C567A6B-F837-486D-851D-CE70F47AD68A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="b7be8240-149b-427d-8eba-7bb1ff6225dd"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="869da506-bace-44af-a899-86cec871751e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -23339,18 +23348,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C567A6B-F837-486D-851D-CE70F47AD68A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F343E3C9-47AE-45F4-B386-B306DF359907}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="b7be8240-149b-427d-8eba-7bb1ff6225dd"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="869da506-bace-44af-a899-86cec871751e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>